--- a/data/Inventur_Rollen.xlsx
+++ b/data/Inventur_Rollen.xlsx
@@ -751,7 +751,11 @@
           <t>123123</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
@@ -764,7 +768,11 @@
       <c r="H2" t="n">
         <v>222</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>2313</t>
